--- a/PPG/Prêmio CAPES de Tese.xlsx
+++ b/PPG/Prêmio CAPES de Tese.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD644C8F-C302-AF4D-8A6D-B5A4F7CD1FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D1824-B2C9-0D48-BF7F-5246464C1FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022(2021)" sheetId="20" r:id="rId1"/>
-    <sheet name="2021(2020)" sheetId="19" r:id="rId2"/>
-    <sheet name="2020(2019)" sheetId="17" r:id="rId3"/>
+    <sheet name="2023(2022)" sheetId="21" r:id="rId1"/>
+    <sheet name="2022(2021)" sheetId="20" r:id="rId2"/>
+    <sheet name="2021(2020)" sheetId="19" r:id="rId3"/>
+    <sheet name="2020(2019)" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Tese selecionada</t>
   </si>
@@ -72,6 +73,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1QMF4sBI2QxBU74MMLPD3Y_YhfQnkP2kZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19S6WviEN7fqhQQsgJ_r39QEAenDzfx85</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vYxef1HQO2ZVyzzbmmQxflACZoTQF0xA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ie0cpOpWLLibCULTtr-T2ora6Ni2_9nr</t>
   </si>
 </sst>
 </file>
@@ -449,7 +459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA0AB40-45B3-6349-BB5E-CABD771BFA2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA330C8-5E91-3743-A768-4B623AE2D88E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -473,6 +483,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{71565F97-DACA-684D-AF30-2EBE81DC60D8}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{8C567DB9-B81A-324A-85A7-DA5D35FC634C}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{70C27868-AFB7-8541-A54B-042A9329AC2F}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA0AB40-45B3-6349-BB5E-CABD771BFA2F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="67.1640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -492,7 +546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6781C4-279A-8944-AB71-559341972F64}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -536,7 +590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/PPG/Prêmio CAPES de Tese.xlsx
+++ b/PPG/Prêmio CAPES de Tese.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339D1824-B2C9-0D48-BF7F-5246464C1FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D2511-6E65-894F-BDC2-6F654265D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023(2022)" sheetId="21" r:id="rId1"/>
-    <sheet name="2022(2021)" sheetId="20" r:id="rId2"/>
-    <sheet name="2021(2020)" sheetId="19" r:id="rId3"/>
-    <sheet name="2020(2019)" sheetId="17" r:id="rId4"/>
+    <sheet name="2023" sheetId="21" r:id="rId1"/>
+    <sheet name="2022" sheetId="20" r:id="rId2"/>
+    <sheet name="2021" sheetId="19" r:id="rId3"/>
+    <sheet name="2020" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,32 +37,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Tese selecionada</t>
   </si>
   <si>
-    <t>Foto</t>
-  </si>
-  <si>
     <t>Menção honrosa</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1QvakSENcqyCONKMXU4hJJmcgsJrxBC5i</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1RD0z8EFavdobZKGUNWtkbXTnom7JMaCK</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1A0OfhaY69UBpHrhHGCzTmu3M1GHQW2o5</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1S23qA8paJhh2pFAzAFCE8jucbR0OxbiD</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Rf6cxiJwZMLIdkA1f1c4dgTcoHIf5VMj</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/19gvmOyGbpakI71O62ijylKZXInHqRLuh</t>
   </si>
   <si>
@@ -70,12 +61,6 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Q4351S9hjKILuC75sIOXRiXCXu0PRrJc</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1QMF4sBI2QxBU74MMLPD3Y_YhfQnkP2kZ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19S6WviEN7fqhQQsgJ_r39QEAenDzfx85</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1vYxef1HQO2ZVyzzbmmQxflACZoTQF0xA</t>
@@ -460,43 +445,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA330C8-5E91-3743-A768-4B623AE2D88E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="67.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{71565F97-DACA-684D-AF30-2EBE81DC60D8}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{8C567DB9-B81A-324A-85A7-DA5D35FC634C}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{70C27868-AFB7-8541-A54B-042A9329AC2F}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{70C27868-AFB7-8541-A54B-042A9329AC2F}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{71565F97-DACA-684D-AF30-2EBE81DC60D8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -504,43 +482,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA0AB40-45B3-6349-BB5E-CABD771BFA2F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="67.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5D1349A9-4B26-6E42-8E8B-006220417C03}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5D1349A9-4B26-6E42-8E8B-006220417C03}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{6AD1A6B9-C91D-3B48-95EA-2FED183CF785}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{DC86B1F9-7079-4F41-9A16-AB96F3A4C606}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -548,43 +519,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6781C4-279A-8944-AB71-559341972F64}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="67.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D3F60C50-D67F-534A-9660-B931D44E7974}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{FA444218-D6BC-F148-B218-5ECDBCD90D27}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{CE2298AF-B5D7-E04D-ABE7-FB601D34E2AF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{CE2298AF-B5D7-E04D-ABE7-FB601D34E2AF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -592,42 +556,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="67.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{8CE1D65B-2C1C-394D-BA23-30EFE6F3E41E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{3A544BC8-E813-4F40-8AB4-925665D2306A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Prêmio CAPES de Tese.xlsx
+++ b/PPG/Prêmio CAPES de Tese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208D2511-6E65-894F-BDC2-6F654265D53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B76DE9B-EC32-304A-B997-AE144127D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -447,7 +447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA330C8-5E91-3743-A768-4B623AE2D88E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -584,7 +586,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8CE1D65B-2C1C-394D-BA23-30EFE6F3E41E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{EF384B4F-EDA8-3141-BE36-C694666BB83C}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{16C2972F-9531-984D-9E3E-30F120AAE945}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Prêmio CAPES de Tese.xlsx
+++ b/PPG/Prêmio CAPES de Tese.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B76DE9B-EC32-304A-B997-AE144127D5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FDA79E-8438-9F4E-AB77-B6C53135378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="21" r:id="rId1"/>
-    <sheet name="2022" sheetId="20" r:id="rId2"/>
-    <sheet name="2021" sheetId="19" r:id="rId3"/>
-    <sheet name="2020" sheetId="17" r:id="rId4"/>
+    <sheet name="Teses" sheetId="21" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,36 +34,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
-  <si>
-    <t>Tese selecionada</t>
-  </si>
-  <si>
-    <t>Menção honrosa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://drive.google.com/file/d/1QvakSENcqyCONKMXU4hJJmcgsJrxBC5i</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1A0OfhaY69UBpHrhHGCzTmu3M1GHQW2o5</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1S23qA8paJhh2pFAzAFCE8jucbR0OxbiD</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19gvmOyGbpakI71O62ijylKZXInHqRLuh</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xQn_Et5bQnxPzGKHKofOCWlSp5nfle0U</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1Q4351S9hjKILuC75sIOXRiXCXu0PRrJc</t>
   </si>
   <si>
     <t>https://drive.google.com/file/d/1vYxef1HQO2ZVyzzbmmQxflACZoTQF0xA</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ie0cpOpWLLibCULTtr-T2ora6Ni2_9nr</t>
+    <t>Discente</t>
+  </si>
+  <si>
+    <t>Tese</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Fabiana Azevedo Terra Cunha Belache</t>
+  </si>
+  <si>
+    <t>Ano Defesa</t>
+  </si>
+  <si>
+    <t>Pablo Rodrigo de Oliveira Silva</t>
+  </si>
+  <si>
+    <t>Debora Cristina Lima da Silva</t>
+  </si>
+  <si>
+    <t>Eduardo Gallas Leivas</t>
+  </si>
+  <si>
+    <t>Marcos Paulo Gonçalves dos Santos</t>
+  </si>
+  <si>
+    <t>EFEITOS DE UM PROGRAMA DE EXERCÍCIOS PROGRESSIVOS PARA A ESTABILIDADE ESTÁTICA E DINÂMICA DE IDOSOS: UM ENSAIO CLÍNICO</t>
+  </si>
+  <si>
+    <t>POSTURAS BÁSICAS E FATORES DE RISCO PARA LOMBALGIA OCUPACIONAL: UMA INVESTIGAÇÃO COM TRABALHADORES E COM PROFISSIONAIS DE SAÚDE</t>
+  </si>
+  <si>
+    <t>EFEITOS DA NEUROMODULAÇÃO NO CONTROLE POSTURAL DOS INDIVÍDUOS COM DOENÇA DE PARKINSON</t>
+  </si>
+  <si>
+    <t>CONTROLE AUTONÔMICO CARDÍACO SOB CONDIÇÕES DE REPOUSO, EXERCÍCIO E PÓS-EXERCÍCIO EM INDIVÍDUOS COM LESÃO MEDULAR: UM ESTUDO OBSERVACIONAL DO TIPO SECCIONAL</t>
+  </si>
+  <si>
+    <t>TERAPIA COGNITIVO-FUNCIONAL (TCF) EM COMPARAÇÃO COM TERAPIA MANUAL COMBINADA A EXERCÍCIO DE CONTROLE MOTOR PARA PACIENTES COM DOR LOMBAR CRÔNICA NÃO ESPECÍFICA: ENSAIO CLÍNICO CONTROLADO ALEATORIZADO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Y2gljrRNfg7QcRoPQdHKFj4iosZc_6nd</t>
   </si>
 </sst>
 </file>
@@ -82,17 +106,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,17 +141,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -445,149 +475,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA330C8-5E91-3743-A768-4B623AE2D88E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="72.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{70C27868-AFB7-8541-A54B-042A9329AC2F}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{71565F97-DACA-684D-AF30-2EBE81DC60D8}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA0AB40-45B3-6349-BB5E-CABD771BFA2F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5D1349A9-4B26-6E42-8E8B-006220417C03}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{6AD1A6B9-C91D-3B48-95EA-2FED183CF785}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6781C4-279A-8944-AB71-559341972F64}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3F60C50-D67F-534A-9660-B931D44E7974}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{CE2298AF-B5D7-E04D-ABE7-FB601D34E2AF}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1289A2C-5524-7844-AA0D-D179E694927D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="67.1640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EF384B4F-EDA8-3141-BE36-C694666BB83C}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{16C2972F-9531-984D-9E3E-30F120AAE945}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{96D7CAD3-3FC3-8242-93A7-DF9B882EE3AB}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{487559C1-8384-EF4A-ACB6-D486EF150512}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{51CD2C18-1BAA-4F44-93A5-9F0299A20AE0}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{C0ED9054-350D-AA4B-8D28-3E6CCBDCF602}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{77EB0ED3-80B3-A043-8C20-0569A9F35B07}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
